--- a/static/LinkedIn_Notes.xlsx
+++ b/static/LinkedIn_Notes.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Name</t>
   </si>
@@ -34,12 +34,6 @@
     <t>https://www.linkedin.com/in/shatakshibrijpuriya/</t>
   </si>
   <si>
-    <t xml:space="preserve">Srishti Aggarwal </t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/srishti-aggarwal-176b16165/</t>
-  </si>
-  <si>
     <t>vaishali sharma</t>
   </si>
   <si>
@@ -92,12 +86,6 @@
   </si>
   <si>
     <t>https://www.linkedin.com/in/kavinbhartimittal/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aishwarya Ramaswami </t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/aishwarya-ramaswami-69425b178/</t>
   </si>
 </sst>
 </file>
@@ -502,32 +490,16 @@
       <c r="A11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -543,9 +515,7 @@
     <hyperlink r:id="rId9" ref="B10"/>
     <hyperlink r:id="rId10" ref="B11"/>
     <hyperlink r:id="rId11" ref="B12"/>
-    <hyperlink r:id="rId12" ref="B13"/>
-    <hyperlink r:id="rId13" ref="B14"/>
   </hyperlinks>
-  <drawing r:id="rId14"/>
+  <drawing r:id="rId12"/>
 </worksheet>
 </file>
--- a/static/LinkedIn_Notes.xlsx
+++ b/static/LinkedIn_Notes.xlsx
@@ -4,6 +4,7 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="Sheet2" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -172,6 +173,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
@@ -518,4 +523,18 @@
   </hyperlinks>
   <drawing r:id="rId12"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/static/LinkedIn_Notes.xlsx
+++ b/static/LinkedIn_Notes.xlsx
@@ -102,6 +102,8 @@
     <font>
       <b/>
       <sz val="12.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
     </font>
     <font>
       <color theme="1"/>
